--- a/bioSample/bioSample_0759.xlsx
+++ b/bioSample/bioSample_0759.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_0759.xlsx
+++ b/bioSample/bioSample_0759.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251BA017-ECF5-2D4F-844A-34081287AB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC710B1-5B8B-A842-91D6-0A6183922391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23600" yWindow="460" windowWidth="10000" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,10 +142,10 @@
     <t>08.31.12</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>DMEM</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -622,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -657,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -695,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -736,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -777,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -818,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -859,7 +859,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -947,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -997,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1088,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -1123,7 +1123,7 @@
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
@@ -1158,7 +1158,7 @@
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
@@ -1252,7 +1252,7 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -1302,7 +1302,7 @@
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -1402,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -1452,7 +1452,7 @@
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
@@ -1502,7 +1502,7 @@
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -1552,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -1602,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
